--- a/Documentation/T24N/WeatherFileClimateZone_T24N_2022.xlsx
+++ b/Documentation/T24N/WeatherFileClimateZone_T24N_2022.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\svn-CEC\SF_CBECC-Com\branches\CBECC-Com_19-1-0_RC\Documentation\T24N\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CBECC\CBECC-COM\CBECC-Com_2022_CentralMFamHVAC\Documentation\T24N\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17D769AF-66BD-48DF-9889-1A05F91BD57D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24D7F94D-EA63-4EF3-87D0-4F8833860C00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4995" yWindow="608" windowWidth="19898" windowHeight="10762" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33075" yWindow="7890" windowWidth="21600" windowHeight="12735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WeatherFileClimateZone" sheetId="2" r:id="rId1"/>
@@ -23,11 +23,16 @@
     <definedName name="WBData">'[1]Wetbulb Sorting'!$B$1:$B$1721</definedName>
     <definedName name="WBDataRef">'[1]Wetbulb Sorting'!$B$1</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -48,7 +53,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Nikhil Kapur:</t>
         </r>
@@ -57,7 +62,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Ann Clg .4% Condns DB=&gt;MWB</t>
@@ -72,7 +77,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Nikhil Kapur:</t>
         </r>
@@ -81,7 +86,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
  Ann Clg .4% Condns DB=&gt;MWB</t>
@@ -117,7 +122,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="101">
   <si>
     <t>Elevation</t>
   </si>
@@ -414,6 +419,12 @@
   </si>
   <si>
     <t>5a3a8bd0f742cd09bc075c8c1ef9bfeaf6cc47b5fb5a9c8d124acf53dfec2d0a</t>
+  </si>
+  <si>
+    <t>DsgnHtgDB</t>
+  </si>
+  <si>
+    <t>Design DB for Heating (From Res)</t>
   </si>
 </sst>
 </file>
@@ -425,7 +436,7 @@
     <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
-  <fonts count="30" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -608,19 +619,6 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="9"/>
@@ -2330,35 +2328,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T23"/>
+  <dimension ref="A1:U23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4:L19"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="O22" sqref="O22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.59765625" style="7" customWidth="1"/>
-    <col min="2" max="2" width="22.86328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.73046875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.86328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.73046875" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="29.1328125" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.1328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="11.59765625" style="8" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="2.73046875" style="7" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.59765625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.1328125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6" style="3" customWidth="1"/>
-    <col min="18" max="18" width="7.73046875" style="3" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.59765625" style="3" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="29.265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.5703125" style="7" customWidth="1"/>
+    <col min="2" max="2" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="29.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.140625" style="1" customWidth="1"/>
+    <col min="12" max="13" width="11.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="2.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6" style="3" customWidth="1"/>
+    <col min="19" max="19" width="7.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="29.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>14</v>
       </c>
@@ -2368,11 +2367,12 @@
       <c r="F1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
-      <c r="K1" s="8"/>
+      <c r="K1" s="1"/>
       <c r="L1" s="8"/>
-      <c r="M1" s="7"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="7"/>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>17</v>
       </c>
@@ -2403,26 +2403,29 @@
       <c r="J2" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="K2" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="L2" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="M2" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="Q2" s="7" t="s">
+      <c r="R2" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="R2" s="7" t="s">
+      <c r="S2" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="S2" s="17" t="s">
+      <c r="T2" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>16</v>
       </c>
@@ -2453,21 +2456,21 @@
       <c r="J3" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="K3" s="8" t="s">
-        <v>20</v>
+      <c r="K3" s="3" t="s">
+        <v>100</v>
       </c>
       <c r="L3" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="M3" s="7"/>
-      <c r="N3" s="4" t="s">
+      <c r="M3" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="N3" s="7"/>
+      <c r="O3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="O3" s="3" t="s">
+      <c r="P3" s="3" t="s">
         <v>63</v>
-      </c>
-      <c r="Q3" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="R3" s="7" t="s">
         <v>64</v>
@@ -2475,11 +2478,14 @@
       <c r="S3" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="T3" s="3" t="s">
+      <c r="T3" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="U3" s="3" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>725945</v>
       </c>
@@ -2496,53 +2502,56 @@
         <v>-124.11</v>
       </c>
       <c r="F4" s="13">
-        <f>ROUND(O4*3.2808399,0)</f>
+        <f>ROUND(P4*3.2808399,0)</f>
         <v>210</v>
       </c>
       <c r="G4" s="16">
-        <f t="shared" ref="G4:G16" si="0">ROUND((Q4*9/5)+32,1)</f>
+        <f t="shared" ref="G4:G16" si="0">ROUND((R4*9/5)+32,1)</f>
         <v>70.7</v>
       </c>
       <c r="H4" s="16">
-        <f t="shared" ref="H4:H19" si="1">ROUND((R4*9/5)+32,1)</f>
+        <f t="shared" ref="H4:H19" si="1">ROUND((S4*9/5)+32,1)</f>
         <v>59</v>
       </c>
       <c r="I4" s="12">
-        <f t="shared" ref="I4:I19" si="2">ROUND((S4*9/5)+32,1)</f>
+        <f t="shared" ref="I4:I19" si="2">ROUND((T4*9/5)+32,1)</f>
         <v>62.4</v>
       </c>
       <c r="J4" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="K4" s="9" t="s">
+      <c r="K4" s="3">
+        <v>33.6</v>
+      </c>
+      <c r="L4" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="L4" s="9" t="s">
+      <c r="M4" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="M4" s="10" t="s">
+      <c r="N4" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>1</v>
       </c>
-      <c r="O4" s="3">
+      <c r="P4" s="3">
         <v>64</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>21.5</v>
       </c>
-      <c r="R4" s="3">
+      <c r="S4" s="3">
         <v>15</v>
       </c>
-      <c r="S4" s="3">
+      <c r="T4" s="3">
         <v>16.899999999999999</v>
       </c>
-      <c r="T4" s="15" t="s">
+      <c r="U4" s="15" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>724957</v>
       </c>
@@ -2559,7 +2568,7 @@
         <v>-122.81</v>
       </c>
       <c r="F5" s="13">
-        <f t="shared" ref="F5:F19" si="3">ROUND(O5*3.2808399,0)</f>
+        <f t="shared" ref="F5:F19" si="3">ROUND(P5*3.2808399,0)</f>
         <v>148</v>
       </c>
       <c r="G5" s="16">
@@ -2577,35 +2586,38 @@
       <c r="J5" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="K5" s="9" t="s">
+      <c r="K5" s="3">
+        <v>31.5</v>
+      </c>
+      <c r="L5" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="L5" s="9" t="s">
+      <c r="M5" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="M5" s="10" t="s">
+      <c r="N5" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>2</v>
       </c>
-      <c r="O5" s="3">
+      <c r="P5" s="3">
         <v>45</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>34.799999999999997</v>
       </c>
-      <c r="R5" s="3">
+      <c r="S5" s="3">
         <v>19.100000000000001</v>
       </c>
-      <c r="S5" s="3">
+      <c r="T5" s="3">
         <v>20.6</v>
       </c>
-      <c r="T5" s="15" t="s">
+      <c r="U5" s="15" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>724930</v>
       </c>
@@ -2640,35 +2652,38 @@
       <c r="J6" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="K6" s="9" t="s">
+      <c r="K6" s="3">
+        <v>39.200000000000003</v>
+      </c>
+      <c r="L6" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="L6" s="9" t="s">
+      <c r="M6" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="M6" s="10" t="s">
+      <c r="N6" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>3</v>
       </c>
-      <c r="O6" s="3">
+      <c r="P6" s="3">
         <v>26</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>28.6</v>
       </c>
-      <c r="R6" s="3">
+      <c r="S6" s="3">
         <v>17.899999999999999</v>
       </c>
-      <c r="S6" s="3">
+      <c r="T6" s="3">
         <v>19.2</v>
       </c>
-      <c r="T6" s="3" t="s">
+      <c r="U6" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>724946</v>
       </c>
@@ -2703,35 +2718,38 @@
       <c r="J7" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="K7" s="9" t="s">
+      <c r="K7" s="3">
+        <v>38.299999999999997</v>
+      </c>
+      <c r="L7" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="L7" s="9" t="s">
+      <c r="M7" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="M7" s="10" t="s">
+      <c r="N7" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>4</v>
       </c>
-      <c r="O7" s="3">
+      <c r="P7" s="3">
         <v>41</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>33</v>
       </c>
-      <c r="R7" s="3">
+      <c r="S7" s="3">
         <v>18.899999999999999</v>
       </c>
-      <c r="S7" s="3">
+      <c r="T7" s="3">
         <v>20.5</v>
       </c>
-      <c r="T7" s="3" t="s">
+      <c r="U7" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>723940</v>
       </c>
@@ -2766,35 +2784,38 @@
       <c r="J8" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="K8" s="9" t="s">
+      <c r="K8" s="3">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="L8" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="L8" s="9" t="s">
+      <c r="M8" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="M8" s="10" t="s">
+      <c r="N8" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <v>5</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>72</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <v>29</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>16.600000000000001</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>18.899999999999999</v>
       </c>
-      <c r="T8" s="3" t="s">
+      <c r="U8" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>722955</v>
       </c>
@@ -2829,35 +2850,38 @@
       <c r="J9" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="K9" s="9" t="s">
+      <c r="K9" s="3">
+        <v>43.9</v>
+      </c>
+      <c r="L9" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="L9" s="9" t="s">
+      <c r="M9" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="M9" s="10" t="s">
+      <c r="N9" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>6</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>31</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>31.1</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>17.100000000000001</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>21</v>
       </c>
-      <c r="T9" s="3" t="s">
+      <c r="U9" s="3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>722900</v>
       </c>
@@ -2892,35 +2916,38 @@
       <c r="J10" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="K10" s="9" t="s">
+      <c r="K10" s="3">
+        <v>47.2</v>
+      </c>
+      <c r="L10" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="L10" s="9" t="s">
+      <c r="M10" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="M10" s="10" t="s">
+      <c r="N10" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>7</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>8</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>28.7</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>18.2</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>21.7</v>
       </c>
-      <c r="T10" s="3" t="s">
+      <c r="U10" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>722976</v>
       </c>
@@ -2955,35 +2982,38 @@
       <c r="J11" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="K11" s="9" t="s">
+      <c r="K11" s="3">
+        <v>42.8</v>
+      </c>
+      <c r="L11" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="L11" s="9" t="s">
+      <c r="M11" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="M11" s="10" t="s">
+      <c r="N11" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>8</v>
       </c>
-      <c r="O11" s="3">
+      <c r="P11" s="3">
         <v>29</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>35</v>
       </c>
-      <c r="R11" s="3">
+      <c r="S11" s="3">
         <v>19.399999999999999</v>
       </c>
-      <c r="S11" s="3">
+      <c r="T11" s="3">
         <v>22.4</v>
       </c>
-      <c r="T11" s="3" t="s">
+      <c r="U11" s="3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>722880</v>
       </c>
@@ -3018,35 +3048,38 @@
       <c r="J12" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="K12" s="9" t="s">
+      <c r="K12" s="3">
+        <v>41.3</v>
+      </c>
+      <c r="L12" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="L12" s="9" t="s">
+      <c r="M12" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="M12" s="10" t="s">
+      <c r="N12" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <v>9</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>223</v>
       </c>
-      <c r="Q12">
+      <c r="R12">
         <v>36.4</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>19.899999999999999</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>22.6</v>
       </c>
-      <c r="T12" s="3" t="s">
+      <c r="U12" s="3" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>722869</v>
       </c>
@@ -3081,35 +3114,38 @@
       <c r="J13" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="K13" s="9" t="s">
+      <c r="K13" s="3">
+        <v>38.9</v>
+      </c>
+      <c r="L13" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="L13" s="9" t="s">
+      <c r="M13" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="M13" s="10" t="s">
+      <c r="N13" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="N13">
+      <c r="O13">
         <v>10</v>
       </c>
-      <c r="O13" s="3">
+      <c r="P13" s="3">
         <v>249</v>
       </c>
-      <c r="Q13">
+      <c r="R13">
         <v>37.9</v>
       </c>
-      <c r="R13" s="3">
+      <c r="S13" s="3">
         <v>20.7</v>
       </c>
-      <c r="S13" s="3">
+      <c r="T13" s="3">
         <v>22.7</v>
       </c>
-      <c r="T13" s="3" t="s">
+      <c r="U13" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>725910</v>
       </c>
@@ -3144,35 +3180,38 @@
       <c r="J14" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="K14" s="9" t="s">
+      <c r="K14" s="3">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="L14" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="L14" s="9" t="s">
+      <c r="M14" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="M14" s="10" t="s">
+      <c r="N14" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <v>11</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>107</v>
       </c>
-      <c r="Q14">
+      <c r="R14">
         <v>40.4</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>20.2</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>22.4</v>
       </c>
-      <c r="T14" s="3" t="s">
+      <c r="U14" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>724830</v>
       </c>
@@ -3207,35 +3246,38 @@
       <c r="J15" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="K15" s="9" t="s">
+      <c r="K15" s="3">
+        <v>34</v>
+      </c>
+      <c r="L15" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="L15" s="9" t="s">
+      <c r="M15" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="M15" s="10" t="s">
+      <c r="N15" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="N15">
+      <c r="O15">
         <v>12</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>7</v>
       </c>
-      <c r="Q15">
+      <c r="R15">
         <v>37.799999999999997</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>21</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>22.4</v>
       </c>
-      <c r="T15" s="3" t="s">
+      <c r="U15" s="3" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>723890</v>
       </c>
@@ -3270,35 +3312,38 @@
       <c r="J16" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="K16" s="9" t="s">
+      <c r="K16" s="3">
+        <v>34.799999999999997</v>
+      </c>
+      <c r="L16" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="L16" s="9" t="s">
+      <c r="M16" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="M16" s="10" t="s">
+      <c r="N16" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="N16">
+      <c r="O16">
         <v>13</v>
       </c>
-      <c r="O16" s="3">
+      <c r="P16" s="3">
         <v>99</v>
       </c>
-      <c r="Q16">
+      <c r="R16">
         <v>39.799999999999997</v>
       </c>
-      <c r="R16" s="3">
+      <c r="S16" s="3">
         <v>21.3</v>
       </c>
-      <c r="S16" s="3">
+      <c r="T16" s="3">
         <v>23</v>
       </c>
-      <c r="T16" s="3" t="s">
+      <c r="U16" s="3" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>723820</v>
       </c>
@@ -3319,7 +3364,7 @@
         <v>2582</v>
       </c>
       <c r="G17" s="16">
-        <f>ROUND((Q17*9/5)+32,1)</f>
+        <f>ROUND((R17*9/5)+32,1)</f>
         <v>102</v>
       </c>
       <c r="H17" s="16">
@@ -3333,35 +3378,38 @@
       <c r="J17" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="K17" s="9" t="s">
+      <c r="K17" s="3">
+        <v>28</v>
+      </c>
+      <c r="L17" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="L17" s="9" t="s">
+      <c r="M17" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="M17" s="10" t="s">
+      <c r="N17" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="N17">
+      <c r="O17">
         <v>14</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>787</v>
       </c>
-      <c r="Q17">
+      <c r="R17">
         <v>38.9</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>18.7</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>21.1</v>
       </c>
-      <c r="T17" s="3" t="s">
+      <c r="U17" s="3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <v>722868</v>
       </c>
@@ -3382,7 +3430,7 @@
         <v>476</v>
       </c>
       <c r="G18" s="16">
-        <f t="shared" ref="G18:G19" si="4">ROUND((Q18*9/5)+32,1)</f>
+        <f t="shared" ref="G18:G19" si="4">ROUND((R18*9/5)+32,1)</f>
         <v>111.4</v>
       </c>
       <c r="H18" s="16">
@@ -3396,35 +3444,38 @@
       <c r="J18" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="K18" s="9" t="s">
+      <c r="K18" s="3">
+        <v>43.9</v>
+      </c>
+      <c r="L18" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="L18" s="9" t="s">
+      <c r="M18" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="M18" s="10" t="s">
+      <c r="N18" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="N18">
+      <c r="O18">
         <v>15</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>145</v>
       </c>
-      <c r="Q18">
+      <c r="R18">
         <v>44.1</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>21.5</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>25.9</v>
       </c>
-      <c r="T18" s="3" t="s">
+      <c r="U18" s="3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <v>725845</v>
       </c>
@@ -3459,35 +3510,38 @@
       <c r="J19" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="K19" s="9" t="s">
+      <c r="K19" s="3">
+        <v>23.6</v>
+      </c>
+      <c r="L19" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="L19" s="9" t="s">
+      <c r="M19" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="M19" s="10" t="s">
+      <c r="N19" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="N19">
+      <c r="O19">
         <v>16</v>
       </c>
-      <c r="O19" s="3">
+      <c r="P19" s="3">
         <v>1610</v>
       </c>
-      <c r="Q19">
+      <c r="R19">
         <v>28.6</v>
       </c>
-      <c r="R19" s="3">
+      <c r="S19" s="3">
         <v>14.9</v>
       </c>
-      <c r="S19" s="3">
+      <c r="T19" s="3">
         <v>16.899999999999999</v>
       </c>
-      <c r="T19" s="3" t="s">
+      <c r="U19" s="3" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="20" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>12</v>
       </c>
@@ -3510,21 +3564,22 @@
       <c r="J20" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="K20" s="9"/>
+      <c r="K20" s="11"/>
       <c r="L20" s="9"/>
-      <c r="M20" s="10" t="s">
+      <c r="M20" s="9"/>
+      <c r="N20" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="N20" s="3" t="s">
+      <c r="O20" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="H23" s="16"/>
     </row>
   </sheetData>
